--- a/natmiOut/OldD4/LR-pairs_lrc2p/Uts2-Uts2r.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Uts2-Uts2r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.100706558432593</v>
+        <v>0.1814523333333333</v>
       </c>
       <c r="H2">
-        <v>0.100706558432593</v>
+        <v>0.544357</v>
       </c>
       <c r="I2">
-        <v>0.2033780044800046</v>
+        <v>0.181754500189899</v>
       </c>
       <c r="J2">
-        <v>0.2033780044800046</v>
+        <v>0.206152260241964</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.15429924016935</v>
+        <v>0.014021</v>
       </c>
       <c r="N2">
-        <v>0.15429924016935</v>
+        <v>0.042063</v>
       </c>
       <c r="O2">
-        <v>0.3230165619946479</v>
+        <v>0.02569356530821986</v>
       </c>
       <c r="P2">
-        <v>0.3230165619946479</v>
+        <v>0.03203208767911103</v>
       </c>
       <c r="Q2">
-        <v>0.01553894544621935</v>
+        <v>0.002544143165666667</v>
       </c>
       <c r="R2">
-        <v>0.01553894544621935</v>
+        <v>0.022897288491</v>
       </c>
       <c r="S2">
-        <v>0.06569446379246317</v>
+        <v>0.00466992112069203</v>
       </c>
       <c r="T2">
-        <v>0.06569446379246317</v>
+        <v>0.006603487275317505</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,123 +584,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.100706558432593</v>
+        <v>0.1814523333333333</v>
       </c>
       <c r="H3">
-        <v>0.100706558432593</v>
+        <v>0.544357</v>
       </c>
       <c r="I3">
-        <v>0.2033780044800046</v>
+        <v>0.181754500189899</v>
       </c>
       <c r="J3">
-        <v>0.2033780044800046</v>
+        <v>0.206152260241964</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.323382892339715</v>
+        <v>0.2077293333333333</v>
       </c>
       <c r="N3">
-        <v>0.323382892339715</v>
+        <v>0.623188</v>
       </c>
       <c r="O3">
-        <v>0.6769834380053521</v>
+        <v>0.3806652301856481</v>
       </c>
       <c r="P3">
-        <v>0.6769834380053521</v>
+        <v>0.4745741544010137</v>
       </c>
       <c r="Q3">
-        <v>0.03256677814351044</v>
+        <v>0.03769297223511111</v>
       </c>
       <c r="R3">
-        <v>0.03256677814351044</v>
+        <v>0.339236750116</v>
       </c>
       <c r="S3">
-        <v>0.1376835406875414</v>
+        <v>0.06918761865206534</v>
       </c>
       <c r="T3">
-        <v>0.1376835406875414</v>
+        <v>0.09783453458218778</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.264397025318133</v>
+        <v>0.1814523333333333</v>
       </c>
       <c r="H4">
-        <v>0.264397025318133</v>
+        <v>0.544357</v>
       </c>
       <c r="I4">
-        <v>0.5339527061253243</v>
+        <v>0.181754500189899</v>
       </c>
       <c r="J4">
-        <v>0.5339527061253243</v>
+        <v>0.206152260241964</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.15429924016935</v>
+        <v>0.3239505</v>
       </c>
       <c r="N4">
-        <v>0.15429924016935</v>
+        <v>0.6479010000000001</v>
       </c>
       <c r="O4">
-        <v>0.3230165619946479</v>
+        <v>0.5936412045061321</v>
       </c>
       <c r="P4">
-        <v>0.3230165619946479</v>
+        <v>0.4933937579198752</v>
       </c>
       <c r="Q4">
-        <v>0.04079626010962432</v>
+        <v>0.0587815741095</v>
       </c>
       <c r="R4">
-        <v>0.04079626010962432</v>
+        <v>0.352689444657</v>
       </c>
       <c r="S4">
-        <v>0.1724755674003408</v>
+        <v>0.1078969604171417</v>
       </c>
       <c r="T4">
-        <v>0.1724755674003408</v>
+        <v>0.1017142383844587</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,185 +708,557 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.264397025318133</v>
+        <v>0.297118</v>
       </c>
       <c r="H5">
-        <v>0.264397025318133</v>
+        <v>0.8913540000000001</v>
       </c>
       <c r="I5">
-        <v>0.5339527061253243</v>
+        <v>0.2976127812488262</v>
       </c>
       <c r="J5">
-        <v>0.5339527061253243</v>
+        <v>0.3375627424203521</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.323382892339715</v>
+        <v>0.014021</v>
       </c>
       <c r="N5">
-        <v>0.323382892339715</v>
+        <v>0.042063</v>
       </c>
       <c r="O5">
-        <v>0.6769834380053521</v>
+        <v>0.02569356530821986</v>
       </c>
       <c r="P5">
-        <v>0.6769834380053521</v>
+        <v>0.03203208767911103</v>
       </c>
       <c r="Q5">
-        <v>0.08550147477339472</v>
+        <v>0.004165891478000001</v>
       </c>
       <c r="R5">
-        <v>0.08550147477339472</v>
+        <v>0.03749302330200001</v>
       </c>
       <c r="S5">
-        <v>0.3614771387249835</v>
+        <v>0.007646733431577666</v>
       </c>
       <c r="T5">
-        <v>0.3614771387249835</v>
+        <v>0.01081283936240989</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.130065786654293</v>
+        <v>0.297118</v>
       </c>
       <c r="H6">
-        <v>0.130065786654293</v>
+        <v>0.8913540000000001</v>
       </c>
       <c r="I6">
-        <v>0.262669289394671</v>
+        <v>0.2976127812488262</v>
       </c>
       <c r="J6">
-        <v>0.262669289394671</v>
+        <v>0.3375627424203521</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.15429924016935</v>
+        <v>0.2077293333333333</v>
       </c>
       <c r="N6">
-        <v>0.15429924016935</v>
+        <v>0.623188</v>
       </c>
       <c r="O6">
-        <v>0.3230165619946479</v>
+        <v>0.3806652301856481</v>
       </c>
       <c r="P6">
-        <v>0.3230165619946479</v>
+        <v>0.4745741544010137</v>
       </c>
       <c r="Q6">
-        <v>0.0200690520527862</v>
+        <v>0.06172012406133334</v>
       </c>
       <c r="R6">
-        <v>0.0200690520527862</v>
+        <v>0.5554811165520001</v>
       </c>
       <c r="S6">
-        <v>0.08484653080184386</v>
+        <v>0.1132908378802754</v>
       </c>
       <c r="T6">
-        <v>0.08484653080184386</v>
+        <v>0.1601985530414258</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.297118</v>
+      </c>
+      <c r="H7">
+        <v>0.8913540000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.2976127812488262</v>
+      </c>
+      <c r="J7">
+        <v>0.3375627424203521</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.3239505</v>
+      </c>
+      <c r="N7">
+        <v>0.6479010000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.5936412045061321</v>
+      </c>
+      <c r="P7">
+        <v>0.4933937579198752</v>
+      </c>
+      <c r="Q7">
+        <v>0.09625152465900003</v>
+      </c>
+      <c r="R7">
+        <v>0.5775091479540001</v>
+      </c>
+      <c r="S7">
+        <v>0.1766752099369732</v>
+      </c>
+      <c r="T7">
+        <v>0.1665513500165164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.1653126666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.495938</v>
+      </c>
+      <c r="I8">
+        <v>0.1655879566445883</v>
+      </c>
+      <c r="J8">
+        <v>0.1878156056409289</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.014021</v>
+      </c>
+      <c r="N8">
+        <v>0.042063</v>
+      </c>
+      <c r="O8">
+        <v>0.02569356530821986</v>
+      </c>
+      <c r="P8">
+        <v>0.03203208767911103</v>
+      </c>
+      <c r="Q8">
+        <v>0.002317848899333334</v>
+      </c>
+      <c r="R8">
+        <v>0.020860640094</v>
+      </c>
+      <c r="S8">
+        <v>0.004254544978302409</v>
+      </c>
+      <c r="T8">
+        <v>0.006016125947395575</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.1653126666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.495938</v>
+      </c>
+      <c r="I9">
+        <v>0.1655879566445883</v>
+      </c>
+      <c r="J9">
+        <v>0.1878156056409289</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.2077293333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.623188</v>
+      </c>
+      <c r="O9">
+        <v>0.3806652301856481</v>
+      </c>
+      <c r="P9">
+        <v>0.4745741544010137</v>
+      </c>
+      <c r="Q9">
+        <v>0.03434029003822223</v>
+      </c>
+      <c r="R9">
+        <v>0.309062610344</v>
+      </c>
+      <c r="S9">
+        <v>0.06303357763208334</v>
+      </c>
+      <c r="T9">
+        <v>0.08913243223035811</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.1653126666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.495938</v>
+      </c>
+      <c r="I10">
+        <v>0.1655879566445883</v>
+      </c>
+      <c r="J10">
+        <v>0.1878156056409289</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.3239505</v>
+      </c>
+      <c r="N10">
+        <v>0.6479010000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.5936412045061321</v>
+      </c>
+      <c r="P10">
+        <v>0.4933937579198752</v>
+      </c>
+      <c r="Q10">
+        <v>0.05355312102300001</v>
+      </c>
+      <c r="R10">
+        <v>0.3213187261380001</v>
+      </c>
+      <c r="S10">
+        <v>0.09829983403420259</v>
+      </c>
+      <c r="T10">
+        <v>0.09266704746317525</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.130065786654293</v>
-      </c>
-      <c r="H7">
-        <v>0.130065786654293</v>
-      </c>
-      <c r="I7">
-        <v>0.262669289394671</v>
-      </c>
-      <c r="J7">
-        <v>0.262669289394671</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.323382892339715</v>
-      </c>
-      <c r="N7">
-        <v>0.323382892339715</v>
-      </c>
-      <c r="O7">
-        <v>0.6769834380053521</v>
-      </c>
-      <c r="P7">
-        <v>0.6769834380053521</v>
-      </c>
-      <c r="Q7">
-        <v>0.04206105028270558</v>
-      </c>
-      <c r="R7">
-        <v>0.04206105028270558</v>
-      </c>
-      <c r="S7">
-        <v>0.1778227585928271</v>
-      </c>
-      <c r="T7">
-        <v>0.1778227585928271</v>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.3544545</v>
+      </c>
+      <c r="H11">
+        <v>0.708909</v>
+      </c>
+      <c r="I11">
+        <v>0.3550447619166864</v>
+      </c>
+      <c r="J11">
+        <v>0.268469391696755</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.014021</v>
+      </c>
+      <c r="N11">
+        <v>0.042063</v>
+      </c>
+      <c r="O11">
+        <v>0.02569356530821986</v>
+      </c>
+      <c r="P11">
+        <v>0.03203208767911103</v>
+      </c>
+      <c r="Q11">
+        <v>0.0049698065445</v>
+      </c>
+      <c r="R11">
+        <v>0.029818839267</v>
+      </c>
+      <c r="S11">
+        <v>0.009122365777647754</v>
+      </c>
+      <c r="T11">
+        <v>0.008599635093988056</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.3544545</v>
+      </c>
+      <c r="H12">
+        <v>0.708909</v>
+      </c>
+      <c r="I12">
+        <v>0.3550447619166864</v>
+      </c>
+      <c r="J12">
+        <v>0.268469391696755</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.2077293333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.623188</v>
+      </c>
+      <c r="O12">
+        <v>0.3806652301856481</v>
+      </c>
+      <c r="P12">
+        <v>0.4745741544010137</v>
+      </c>
+      <c r="Q12">
+        <v>0.073630596982</v>
+      </c>
+      <c r="R12">
+        <v>0.441783581892</v>
+      </c>
+      <c r="S12">
+        <v>0.1351531960212241</v>
+      </c>
+      <c r="T12">
+        <v>0.127408634547042</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.3544545</v>
+      </c>
+      <c r="H13">
+        <v>0.708909</v>
+      </c>
+      <c r="I13">
+        <v>0.3550447619166864</v>
+      </c>
+      <c r="J13">
+        <v>0.268469391696755</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.3239505</v>
+      </c>
+      <c r="N13">
+        <v>0.6479010000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.5936412045061321</v>
+      </c>
+      <c r="P13">
+        <v>0.4933937579198752</v>
+      </c>
+      <c r="Q13">
+        <v>0.11482571250225</v>
+      </c>
+      <c r="R13">
+        <v>0.4593028500090001</v>
+      </c>
+      <c r="S13">
+        <v>0.2107692001178146</v>
+      </c>
+      <c r="T13">
+        <v>0.1324611220557249</v>
       </c>
     </row>
   </sheetData>
